--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Tarea</t>
   </si>
@@ -25,6 +25,24 @@
   </si>
   <si>
     <t>calcular percepcion iibb en facturacion según parametro</t>
+  </si>
+  <si>
+    <t>estado</t>
+  </si>
+  <si>
+    <t>no comenzado</t>
+  </si>
+  <si>
+    <t>en proceso</t>
+  </si>
+  <si>
+    <t>terminado</t>
+  </si>
+  <si>
+    <t>borrar de frontend y backend datos de percepcion</t>
+  </si>
+  <si>
+    <t>ajustar consultas de cc proveedores listado de fc y de pagos y balance de cuenta</t>
   </si>
 </sst>
 </file>
@@ -66,7 +84,29 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -363,45 +403,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="53.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"terminado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"en proceso"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"no comenzado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Hoja2!$A$1:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:B1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.140625" customWidth="1"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>Tarea</t>
   </si>
@@ -43,6 +43,18 @@
   </si>
   <si>
     <t>ajustar consultas de cc proveedores listado de fc y de pagos y balance de cuenta</t>
+  </si>
+  <si>
+    <t>revisar formularios y permitir ingreso de codigo ZZZ</t>
+  </si>
+  <si>
+    <t>crear formulario para cargar parametros del sistema</t>
+  </si>
+  <si>
+    <t>las consultas funcionan y mientras sigan asi no se ajustaran</t>
+  </si>
+  <si>
+    <t>generar reporte de historico de movimientos de articulos</t>
   </si>
 </sst>
 </file>
@@ -403,19 +415,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.140625" customWidth="1"/>
+    <col min="1" max="1" width="72.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="3" max="3" width="53.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -423,7 +436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -431,7 +444,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -439,7 +452,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -447,11 +460,38 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -418,7 +418,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,7 +476,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -492,7 +492,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>Tarea</t>
   </si>
@@ -55,6 +55,15 @@
   </si>
   <si>
     <t>generar reporte de historico de movimientos de articulos</t>
+  </si>
+  <si>
+    <t>terminar circuito de movimiento de bancos</t>
+  </si>
+  <si>
+    <t>generar reporte de mov de bancos</t>
+  </si>
+  <si>
+    <t>revisar reporte orden de pago esta fallando</t>
   </si>
 </sst>
 </file>
@@ -415,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,7 +493,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -493,6 +502,30 @@
       </c>
       <c r="B8" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>Tarea</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>revisar reporte orden de pago esta fallando</t>
+  </si>
+  <si>
+    <t>en reporte de OT resaltar observaciones</t>
   </si>
 </sst>
 </file>
@@ -424,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,6 +528,14 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>Tarea</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>en reporte de OT resaltar observaciones</t>
+  </si>
+  <si>
+    <t>mejorar formulario de bancos para agregar cuenta bancaria</t>
+  </si>
+  <si>
+    <t>proveedores pagos, arreglar calculo de retenciones</t>
   </si>
 </sst>
 </file>
@@ -112,7 +118,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -126,7 +132,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -427,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,7 +531,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -533,22 +539,38 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"terminado"</formula>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"no comenzado"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"en proceso"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"no comenzado"</formula>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"terminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t>Tarea</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>proveedores pagos, arreglar calculo de retenciones</t>
+  </si>
+  <si>
+    <t>reporte ot por sector , agregar filtro por estados agregar columna de cantidad y NC</t>
   </si>
 </sst>
 </file>
@@ -433,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,6 +561,14 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
   <si>
     <t>Tarea</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>reporte ot por sector , agregar filtro por estados agregar columna de cantidad y NC</t>
+  </si>
+  <si>
+    <t>cuando se anula una OT consultar si se quieren anular la OT asociadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facturacion en dolares </t>
   </si>
 </sst>
 </file>
@@ -436,15 +442,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="74.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" customWidth="1"/>
     <col min="3" max="3" width="53.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -521,7 +527,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -529,7 +535,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -537,7 +543,7 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -545,7 +551,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -569,7 +575,23 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Tarea</t>
   </si>
@@ -82,6 +82,15 @@
   </si>
   <si>
     <t xml:space="preserve">facturacion en dolares </t>
+  </si>
+  <si>
+    <t>modificar en reportes de produccion filtrar ordenes anuladas</t>
+  </si>
+  <si>
+    <t>reportes de ventas, fcs en dolares multiplicar por TC</t>
+  </si>
+  <si>
+    <t>permitir modificaciond e cantidades en ots</t>
   </si>
 </sst>
 </file>
@@ -442,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,7 +592,7 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -591,6 +600,30 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
   <si>
     <t>Tarea</t>
   </si>
@@ -91,6 +91,21 @@
   </si>
   <si>
     <t>permitir modificaciond e cantidades en ots</t>
+  </si>
+  <si>
+    <t>implementar funcionalidad de atajos al servidor en tabla de articulos</t>
+  </si>
+  <si>
+    <t>aun no viable</t>
+  </si>
+  <si>
+    <t>analizar implementacion de cash flow</t>
+  </si>
+  <si>
+    <t>relacionar ordenes a la inversa</t>
+  </si>
+  <si>
+    <t>EN BUSQUEDA DE ART. CUANDO HACES CLICK EN DESCRIPCION SALTAR PARA TIPEAR AUTOMATICAMENTE</t>
   </si>
 </sst>
 </file>
@@ -451,15 +466,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="74.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="95.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" customWidth="1"/>
     <col min="3" max="3" width="53.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -595,7 +610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -603,7 +618,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -611,7 +626,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -619,12 +634,47 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
   <si>
     <t>Tarea</t>
   </si>
@@ -102,10 +102,13 @@
     <t>analizar implementacion de cash flow</t>
   </si>
   <si>
-    <t>relacionar ordenes a la inversa</t>
-  </si>
-  <si>
     <t>EN BUSQUEDA DE ART. CUANDO HACES CLICK EN DESCRIPCION SALTAR PARA TIPEAR AUTOMATICAMENTE</t>
+  </si>
+  <si>
+    <t>sistematizar el RG 14</t>
+  </si>
+  <si>
+    <t>relacionar ordenes a la inversa, revisar porque hacia abajo trae 2 veces el mismo item</t>
   </si>
 </sst>
 </file>
@@ -466,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,17 +666,25 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>29</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
   <si>
     <t>Tarea</t>
   </si>
@@ -105,10 +105,13 @@
     <t>EN BUSQUEDA DE ART. CUANDO HACES CLICK EN DESCRIPCION SALTAR PARA TIPEAR AUTOMATICAMENTE</t>
   </si>
   <si>
-    <t>sistematizar el RG 14</t>
-  </si>
-  <si>
     <t>relacionar ordenes a la inversa, revisar porque hacia abajo trae 2 veces el mismo item</t>
+  </si>
+  <si>
+    <t>sistematizar el RG 14, se arma indice con parametro general</t>
+  </si>
+  <si>
+    <t>88706 al 88760 identificar</t>
   </si>
 </sst>
 </file>
@@ -472,7 +475,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,10 +669,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -682,10 +685,13 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
         <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
   <si>
     <t>Tarea</t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>88706 al 88760 identificar</t>
+  </si>
+  <si>
+    <t>FORMULARIO DE BANCOS IMPLEMENTAR BAJA LOGICA JUNTO CON CUENTAS</t>
+  </si>
+  <si>
+    <t>agregar en seguimiento de OT el estado del OT buscada</t>
   </si>
 </sst>
 </file>
@@ -472,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,10 +694,26 @@
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
   <si>
     <t>Tarea</t>
   </si>
@@ -117,7 +117,10 @@
     <t>FORMULARIO DE BANCOS IMPLEMENTAR BAJA LOGICA JUNTO CON CUENTAS</t>
   </si>
   <si>
-    <t>agregar en seguimiento de OT el estado del OT buscada</t>
+    <t>agregar en seguimiento de OT el estado del OT buscada y posibilidad de imprimir</t>
+  </si>
+  <si>
+    <t>implementar en tabla cobranza el importe total de la cobranza y terminar reporte de saldo deudor</t>
   </si>
 </sst>
 </file>
@@ -478,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,6 +717,14 @@
       </c>
       <c r="B27" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
   <si>
     <t>Tarea</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>implementar en tabla cobranza el importe total de la cobranza y terminar reporte de saldo deudor</t>
+  </si>
+  <si>
+    <t>no se aplica</t>
   </si>
 </sst>
 </file>
@@ -483,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,7 +601,10 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -606,7 +612,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -697,7 +703,7 @@
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
         <v>31</v>
@@ -708,7 +714,7 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -716,7 +722,7 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -724,7 +730,7 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830"/>
+    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
   <si>
     <t>Tarea</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t>no se aplica</t>
+  </si>
+  <si>
+    <t>proveedores, comprobante de retencion</t>
+  </si>
+  <si>
+    <t>SEGUIMIENTO DE OT CORREGIR ESTADO DE OT</t>
   </si>
 </sst>
 </file>
@@ -484,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,7 +701,7 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -731,6 +737,22 @@
       </c>
       <c r="B28" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
   <si>
     <t>Tarea</t>
   </si>
@@ -51,9 +51,6 @@
     <t>crear formulario para cargar parametros del sistema</t>
   </si>
   <si>
-    <t>las consultas funcionan y mientras sigan asi no se ajustaran</t>
-  </si>
-  <si>
     <t>generar reporte de historico de movimientos de articulos</t>
   </si>
   <si>
@@ -130,6 +127,12 @@
   </si>
   <si>
     <t>SEGUIMIENTO DE OT CORREGIR ESTADO DE OT</t>
+  </si>
+  <si>
+    <t>analizar si debe ir en hoja separada</t>
+  </si>
+  <si>
+    <t>reporte de cobranzas corregir subreporte de liquidacion</t>
   </si>
 </sst>
 </file>
@@ -490,15 +493,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="95.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="66.7109375" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" customWidth="1"/>
     <col min="3" max="3" width="53.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -542,9 +545,6 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -564,7 +564,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -604,18 +604,18 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -623,7 +623,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -631,7 +631,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -647,7 +647,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -655,7 +655,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -663,7 +663,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -671,18 +671,18 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
@@ -690,7 +690,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
@@ -698,7 +698,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
@@ -706,18 +706,18 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
         <v>30</v>
-      </c>
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
@@ -741,18 +741,29 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
       </c>
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="40">
   <si>
     <t>Tarea</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>reporte de cobranzas corregir subreporte de liquidacion</t>
+  </si>
+  <si>
+    <t>balance en cc clientes, agregar a la entidad factura el campo de observacines</t>
   </si>
 </sst>
 </file>
@@ -493,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,6 +767,14 @@
       </c>
       <c r="B31" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="41">
   <si>
     <t>Tarea</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>balance en cc clientes, agregar a la entidad factura el campo de observacines</t>
+  </si>
+  <si>
+    <t>desarrollar num correlativa RG-010</t>
   </si>
 </sst>
 </file>
@@ -496,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,6 +777,14 @@
         <v>39</v>
       </c>
       <c r="B32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770"/>
+    <workbookView xWindow="240" yWindow="405" windowWidth="14805" windowHeight="7710"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
   <si>
     <t>Tarea</t>
   </si>
@@ -139,6 +139,12 @@
   </si>
   <si>
     <t>desarrollar num correlativa RG-010</t>
+  </si>
+  <si>
+    <t>facturacion de remitos pendientes en dolares esta fallando</t>
+  </si>
+  <si>
+    <t>balance en cc proveedores esta fallando</t>
   </si>
 </sst>
 </file>
@@ -499,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -786,6 +792,22 @@
       </c>
       <c r="B33" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
   <si>
     <t>Tarea</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>balance en cc proveedores esta fallando</t>
+  </si>
+  <si>
+    <t>importar tabla articulos con precios y costos en moneda adecuada</t>
   </si>
 </sst>
 </file>
@@ -505,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,7 +778,7 @@
         <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -808,6 +811,14 @@
       </c>
       <c r="B35" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="45">
   <si>
     <t>Tarea</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>importar tabla articulos con precios y costos en moneda adecuada</t>
+  </si>
+  <si>
+    <t>REPORTE DE COBRANZAS NO SE VISUALIZA EL TOTAL</t>
   </si>
 </sst>
 </file>
@@ -508,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,6 +821,14 @@
         <v>43</v>
       </c>
       <c r="B36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -514,7 +514,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,7 +821,7 @@
         <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -829,7 +829,7 @@
         <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="47">
   <si>
     <t>Tarea</t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>REPORTE DE COBRANZAS NO SE VISUALIZA EL TOTAL</t>
+  </si>
+  <si>
+    <t>reporte de comprobantes pagados</t>
+  </si>
+  <si>
+    <t>revisar cobranzas no imputadas a ningun comprobante</t>
   </si>
 </sst>
 </file>
@@ -511,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,6 +836,22 @@
       </c>
       <c r="B37" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="54">
   <si>
     <t>Tarea</t>
   </si>
@@ -157,6 +157,27 @@
   </si>
   <si>
     <t>revisar cobranzas no imputadas a ningun comprobante</t>
+  </si>
+  <si>
+    <t>CARTEL CON N° DE REMITO A IMPIRIMIR ANTES DE GUARDAR</t>
+  </si>
+  <si>
+    <t>en fc agregar tipo de cambio al pie si alguno de los items tiene precio en dolares y se facturo en pesos</t>
+  </si>
+  <si>
+    <t>permitir campo decimal al hacer ingreso de materiales en modulo stock</t>
+  </si>
+  <si>
+    <t>permitir ingreso de pedidos tipo repuestos</t>
+  </si>
+  <si>
+    <t>facturacion cuando el cliente no tiene cargado prov y localidad tirrar el error adecuadoi</t>
+  </si>
+  <si>
+    <t>reporte inventario de cheque de terceros</t>
+  </si>
+  <si>
+    <t>ver maejo de error de facturacion AFIP</t>
   </si>
 </sst>
 </file>
@@ -198,7 +219,49 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -517,15 +580,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="66.7109375" customWidth="1"/>
+    <col min="1" max="1" width="95.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" customWidth="1"/>
     <col min="3" max="3" width="53.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -843,7 +906,7 @@
         <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -854,15 +917,71 @@
         <v>4</v>
       </c>
     </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"no comenzado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"en proceso"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"terminado"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -219,49 +219,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -583,7 +541,7 @@
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,18 +928,18 @@
         <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"no comenzado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"en proceso"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"terminado"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="55">
   <si>
     <t>Tarea</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>ver maejo de error de facturacion AFIP</t>
+  </si>
+  <si>
+    <t>reporte pedidos pasar de dolares a pesos</t>
   </si>
 </sst>
 </file>
@@ -538,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,6 +932,14 @@
       </c>
       <c r="B46" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -11,6 +11,9 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$C$47</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -541,10 +544,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,7 +566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -570,7 +574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -578,7 +582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -586,7 +590,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -594,7 +598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -602,7 +606,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -610,7 +614,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -618,7 +622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -626,7 +630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -634,7 +638,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -642,7 +646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -650,7 +654,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -661,7 +665,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -669,7 +673,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -677,7 +681,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -685,7 +689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -693,7 +697,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -701,7 +705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -709,7 +713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -736,7 +740,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -744,7 +748,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -752,7 +756,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -763,7 +767,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -771,7 +775,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -779,7 +783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -792,13 +796,13 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -806,7 +810,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -830,7 +834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -838,7 +842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -846,7 +850,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -854,7 +858,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -862,7 +866,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -886,7 +890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -907,7 +911,7 @@
         <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -918,7 +922,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -931,7 +935,7 @@
         <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -939,10 +943,18 @@
         <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C47">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="en proceso"/>
+        <filter val="no comenzado"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"no comenzado"</formula>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="56">
   <si>
     <t>Tarea</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>reporte pedidos pasar de dolares a pesos</t>
+  </si>
+  <si>
+    <t>desacoplar controlador de ccclientes en frontend</t>
   </si>
 </sst>
 </file>
@@ -545,10 +548,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,7 +914,7 @@
         <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -944,6 +947,14 @@
       </c>
       <c r="B47" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="57">
   <si>
     <t>Tarea</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>desacoplar controlador de ccclientes en frontend</t>
+  </si>
+  <si>
+    <t>PEDIDI CLIENTES, CUANDO INSERTO UN ARTICULO SE DESTILDA EL CHECK DE REPUESTOS</t>
   </si>
 </sst>
 </file>
@@ -548,10 +551,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,6 +957,14 @@
         <v>55</v>
       </c>
       <c r="B48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="405" windowWidth="14805" windowHeight="7710"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="59">
   <si>
     <t>Tarea</t>
   </si>
@@ -190,6 +190,12 @@
   </si>
   <si>
     <t>PEDIDI CLIENTES, CUANDO INSERTO UN ARTICULO SE DESTILDA EL CHECK DE REPUESTOS</t>
+  </si>
+  <si>
+    <t>PONER RUTAS EN LA TABLA DE ARTICULOS</t>
+  </si>
+  <si>
+    <t>facturacion generar codigo de validacion</t>
   </si>
 </sst>
 </file>
@@ -551,10 +557,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -965,6 +971,22 @@
         <v>56</v>
       </c>
       <c r="B49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="60">
   <si>
     <t>Tarea</t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>facturacion generar codigo de validacion</t>
+  </si>
+  <si>
+    <t>frontend form articulos el codigo solo en mayusculas</t>
   </si>
 </sst>
 </file>
@@ -557,10 +560,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -987,6 +990,14 @@
         <v>58</v>
       </c>
       <c r="B51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="61">
   <si>
     <t>Tarea</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>frontend form articulos el codigo solo en mayusculas</t>
+  </si>
+  <si>
+    <t>agregar localidad a form de remito</t>
   </si>
 </sst>
 </file>
@@ -560,10 +563,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -998,6 +1001,14 @@
         <v>59</v>
       </c>
       <c r="B52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="62">
   <si>
     <t>Tarea</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>agregar localidad a form de remito</t>
+  </si>
+  <si>
+    <t>agregar campo peso a la tabla de articulos</t>
   </si>
 </sst>
 </file>
@@ -563,10 +566,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1009,6 +1012,14 @@
         <v>60</v>
       </c>
       <c r="B53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="63">
   <si>
     <t>Tarea</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>agregar campo peso a la tabla de articulos</t>
+  </si>
+  <si>
+    <t>agregar filto a frontend de remitos</t>
   </si>
 </sst>
 </file>
@@ -566,10 +569,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A56" sqref="A55:A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1020,6 +1023,14 @@
         <v>61</v>
       </c>
       <c r="B54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -572,7 +572,7 @@
   <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A56" sqref="A55:A56"/>
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -991,7 +991,7 @@
         <v>57</v>
       </c>
       <c r="B50" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -999,7 +999,7 @@
         <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1015,7 +1015,7 @@
         <v>60</v>
       </c>
       <c r="B53" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="64">
   <si>
     <t>Tarea</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>agregar filto a frontend de remitos</t>
+  </si>
+  <si>
+    <t>anular remito pendiente de fc</t>
   </si>
 </sst>
 </file>
@@ -569,10 +572,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1031,6 +1034,14 @@
         <v>62</v>
       </c>
       <c r="B55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="65">
   <si>
     <t>Tarea</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>anular remito pendiente de fc</t>
+  </si>
+  <si>
+    <t>facturacion, cambiar de precio solo los articulos en dolares con t/c</t>
   </si>
 </sst>
 </file>
@@ -572,10 +575,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1042,6 +1045,14 @@
         <v>63</v>
       </c>
       <c r="B56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="66">
   <si>
     <t>Tarea</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>facturacion, cambiar de precio solo los articulos en dolares con t/c</t>
+  </si>
+  <si>
+    <t>FILTRAR REMITO PENDIENTE DE FC X CLIENTE</t>
   </si>
 </sst>
 </file>
@@ -575,10 +578,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1045,7 +1048,7 @@
         <v>63</v>
       </c>
       <c r="B56" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1053,6 +1056,14 @@
         <v>64</v>
       </c>
       <c r="B57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="67">
   <si>
     <t>Tarea</t>
   </si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t>FILTRAR REMITO PENDIENTE DE FC X CLIENTE</t>
+  </si>
+  <si>
+    <t>corregir generacion de recibos reporte</t>
   </si>
 </sst>
 </file>
@@ -578,10 +581,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1064,6 +1067,14 @@
         <v>65</v>
       </c>
       <c r="B58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -583,8 +583,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1059,7 +1059,7 @@
         <v>64</v>
       </c>
       <c r="B57" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1067,7 +1067,7 @@
         <v>65</v>
       </c>
       <c r="B58" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -583,8 +583,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,7 +1003,7 @@
         <v>57</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1019,7 +1019,7 @@
         <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1043,7 +1043,7 @@
         <v>62</v>
       </c>
       <c r="B55" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="68">
   <si>
     <t>Tarea</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>corregir generacion de recibos reporte</t>
+  </si>
+  <si>
+    <t>agregar boton de estructura en tabla de articulos</t>
   </si>
 </sst>
 </file>
@@ -581,10 +584,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1075,6 +1078,14 @@
         <v>66</v>
       </c>
       <c r="B59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$C$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$C$60</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -586,8 +586,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,12 +760,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
         <v>25</v>
@@ -830,7 +830,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -865,12 +865,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -945,7 +945,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>50</v>
       </c>
@@ -953,12 +953,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -969,7 +969,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -977,7 +977,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>54</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>57</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>59</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>60</v>
       </c>
@@ -1033,15 +1033,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>61</v>
       </c>
       <c r="B54" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>62</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>63</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>64</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>65</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>66</v>
       </c>
@@ -1090,10 +1090,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C47">
+  <autoFilter ref="A1:C60">
     <filterColumn colId="1">
       <filters>
-        <filter val="en proceso"/>
         <filter val="no comenzado"/>
       </filters>
     </filterColumn>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="71">
   <si>
     <t>Tarea</t>
   </si>
@@ -223,6 +223,15 @@
   </si>
   <si>
     <t>agregar boton de estructura en tabla de articulos</t>
+  </si>
+  <si>
+    <t>generar txt de retenciones pagadas</t>
+  </si>
+  <si>
+    <t>reporte proveedores retenciones</t>
+  </si>
+  <si>
+    <t>percepciones txt percepciones pagadas</t>
   </si>
 </sst>
 </file>
@@ -584,10 +593,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,6 +1096,21 @@
       </c>
       <c r="B60" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="72">
   <si>
     <t>Tarea</t>
   </si>
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t>percepciones txt percepciones pagadas</t>
+  </si>
+  <si>
+    <t>reportes de ot no estan funcionando</t>
   </si>
 </sst>
 </file>
@@ -273,7 +276,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -593,10 +617,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1102,15 +1126,32 @@
       <c r="A61" t="s">
         <v>68</v>
       </c>
+      <c r="B61" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>69</v>
       </c>
+      <c r="B62" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>70</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1122,13 +1163,13 @@
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"no comenzado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"en proceso"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"terminado"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="7650"/>
+    <workbookView xWindow="240" yWindow="525" windowWidth="14805" windowHeight="7590"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="74">
   <si>
     <t>Tarea</t>
   </si>
@@ -235,6 +235,12 @@
   </si>
   <si>
     <t>reportes de ot no estan funcionando</t>
+  </si>
+  <si>
+    <t>implementar cotizaciones</t>
+  </si>
+  <si>
+    <t>reporte pedidos discriminar por respuestos</t>
   </si>
 </sst>
 </file>
@@ -276,28 +282,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -617,10 +602,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1154,6 +1139,22 @@
         <v>4</v>
       </c>
     </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C60">
     <filterColumn colId="1">
@@ -1163,13 +1164,13 @@
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"no comenzado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"en proceso"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"terminado"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="75">
   <si>
     <t>Tarea</t>
   </si>
@@ -241,6 +241,9 @@
   </si>
   <si>
     <t>reporte pedidos discriminar por respuestos</t>
+  </si>
+  <si>
+    <t>sacar codigo zzz del campo codigo de factura y remito</t>
   </si>
 </sst>
 </file>
@@ -602,10 +605,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1152,6 +1155,14 @@
         <v>73</v>
       </c>
       <c r="B66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="76">
   <si>
     <t>Tarea</t>
   </si>
@@ -244,6 +244,9 @@
   </si>
   <si>
     <t>sacar codigo zzz del campo codigo de factura y remito</t>
+  </si>
+  <si>
+    <t>resumen de cc prov y cliente</t>
   </si>
 </sst>
 </file>
@@ -285,7 +288,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -605,10 +629,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1115,7 +1139,7 @@
         <v>68</v>
       </c>
       <c r="B61" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1123,7 +1147,7 @@
         <v>69</v>
       </c>
       <c r="B62" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1131,7 +1155,7 @@
         <v>70</v>
       </c>
       <c r="B63" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1155,7 +1179,7 @@
         <v>73</v>
       </c>
       <c r="B66" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -1163,6 +1187,14 @@
         <v>74</v>
       </c>
       <c r="B67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>75</v>
+      </c>
+      <c r="B68" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1175,13 +1207,13 @@
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"no comenzado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"en proceso"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"terminado"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="78">
   <si>
     <t>Tarea</t>
   </si>
@@ -247,6 +247,12 @@
   </si>
   <si>
     <t>resumen de cc prov y cliente</t>
+  </si>
+  <si>
+    <t>corregir calculo de iva 10,5 y 21 de las ordendes de compra</t>
+  </si>
+  <si>
+    <t>grilla de pedidos internos y de tabla busqueda articulos hacerlas editables para seleccionar</t>
   </si>
 </sst>
 </file>
@@ -288,28 +294,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -629,10 +614,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1198,6 +1183,22 @@
         <v>4</v>
       </c>
     </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C60">
     <filterColumn colId="1">
@@ -1207,13 +1208,13 @@
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"no comenzado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"en proceso"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"terminado"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -616,8 +616,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,7 +972,7 @@
         <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -1028,7 +1028,7 @@
         <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -1124,7 +1124,7 @@
         <v>68</v>
       </c>
       <c r="B61" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1140,7 +1140,7 @@
         <v>70</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1148,7 +1148,7 @@
         <v>71</v>
       </c>
       <c r="B64" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1180,7 +1180,7 @@
         <v>75</v>
       </c>
       <c r="B68" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1188,7 +1188,7 @@
         <v>76</v>
       </c>
       <c r="B69" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1196,7 +1196,7 @@
         <v>77</v>
       </c>
       <c r="B70" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="79">
   <si>
     <t>Tarea</t>
   </si>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t>grilla de pedidos internos y de tabla busqueda articulos hacerlas editables para seleccionar</t>
+  </si>
+  <si>
+    <t>AGREGAR EN CC PROV Y CLIENTES CAMPO PARA ANOTACIONES</t>
   </si>
 </sst>
 </file>
@@ -614,10 +617,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1197,6 +1200,14 @@
       </c>
       <c r="B70" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B71" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$C$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$C$71</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -619,8 +619,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,7 +970,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>68</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>70</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>71</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>73</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>76</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>77</v>
       </c>
@@ -1211,9 +1211,10 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C60">
+  <autoFilter ref="A1:C71">
     <filterColumn colId="1">
       <filters>
+        <filter val="en proceso"/>
         <filter val="no comenzado"/>
       </filters>
     </filterColumn>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="80">
   <si>
     <t>Tarea</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>AGREGAR EN CC PROV Y CLIENTES CAMPO PARA ANOTACIONES</t>
+  </si>
+  <si>
+    <t>ingreso de materiales, implementar grilla para tildar piezas controladas</t>
   </si>
 </sst>
 </file>
@@ -617,10 +620,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1208,6 +1211,14 @@
       </c>
       <c r="B71" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="81">
   <si>
     <t>Tarea</t>
   </si>
@@ -259,6 +259,9 @@
   </si>
   <si>
     <t>ingreso de materiales, implementar grilla para tildar piezas controladas</t>
+  </si>
+  <si>
+    <t>refrescar grilla de bancos cuando se guarda un movimiento</t>
   </si>
 </sst>
 </file>
@@ -620,9 +623,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
@@ -1218,6 +1221,14 @@
         <v>79</v>
       </c>
       <c r="B72" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>80</v>
+      </c>
+      <c r="B73" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="525" windowWidth="14805" windowHeight="7590"/>
+    <workbookView xWindow="240" yWindow="585" windowWidth="14805" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -626,7 +626,7 @@
   <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+      <selection activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="82">
   <si>
     <t>Tarea</t>
   </si>
@@ -262,6 +262,9 @@
   </si>
   <si>
     <t>refrescar grilla de bancos cuando se guarda un movimiento</t>
+  </si>
+  <si>
+    <t>buscar proveedores y cliente por CUIT, en bd campo cuit unico</t>
   </si>
 </sst>
 </file>
@@ -623,17 +626,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80"/>
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="95.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="71" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" customWidth="1"/>
-    <col min="3" max="3" width="53.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1221,7 +1224,7 @@
         <v>79</v>
       </c>
       <c r="B72" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1229,6 +1232,14 @@
         <v>80</v>
       </c>
       <c r="B73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>81</v>
+      </c>
+      <c r="B74" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$C$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$C$74</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="84">
   <si>
     <t>Tarea</t>
   </si>
@@ -265,6 +265,12 @@
   </si>
   <si>
     <t>buscar proveedores y cliente por CUIT, en bd campo cuit unico</t>
+  </si>
+  <si>
+    <t>CC CLIENTES ORDENAR POR FECHA</t>
+  </si>
+  <si>
+    <t>CC PROVEEDORES PINTAR FILAS PAGADAS</t>
   </si>
 </sst>
 </file>
@@ -306,7 +312,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -626,10 +653,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1211,15 +1238,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>78</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>79</v>
       </c>
@@ -1227,7 +1254,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>80</v>
       </c>
@@ -1243,8 +1270,24 @@
         <v>4</v>
       </c>
     </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>82</v>
+      </c>
+      <c r="B75" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>83</v>
+      </c>
+      <c r="B76" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C71">
+  <autoFilter ref="A1:C74">
     <filterColumn colId="1">
       <filters>
         <filter val="en proceso"/>
@@ -1253,13 +1296,13 @@
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"no comenzado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"en proceso"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"terminado"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="85">
   <si>
     <t>Tarea</t>
   </si>
@@ -271,6 +271,9 @@
   </si>
   <si>
     <t>CC PROVEEDORES PINTAR FILAS PAGADAS</t>
+  </si>
+  <si>
+    <t>comisiones por vendedor</t>
   </si>
 </sst>
 </file>
@@ -312,28 +315,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -653,10 +635,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1286,6 +1268,14 @@
         <v>4</v>
       </c>
     </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>84</v>
+      </c>
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C74">
     <filterColumn colId="1">
@@ -1296,13 +1286,13 @@
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"no comenzado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"en proceso"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"terminado"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="87">
   <si>
     <t>Tarea</t>
   </si>
@@ -274,6 +274,12 @@
   </si>
   <si>
     <t>comisiones por vendedor</t>
+  </si>
+  <si>
+    <t>cc ordenar tambien por numero de fc para las fcs q estan en la misma fehca</t>
+  </si>
+  <si>
+    <t>ver calculo de total en reporte de comisiones</t>
   </si>
 </sst>
 </file>
@@ -635,10 +641,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1274,6 +1280,22 @@
       </c>
       <c r="B77" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>85</v>
+      </c>
+      <c r="B78" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>86</v>
+      </c>
+      <c r="B79" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="88">
   <si>
     <t>Tarea</t>
   </si>
@@ -280,6 +280,9 @@
   </si>
   <si>
     <t>ver calculo de total en reporte de comisiones</t>
+  </si>
+  <si>
+    <t>pedidos internos de compras sacar grilla zebra</t>
   </si>
 </sst>
 </file>
@@ -641,10 +644,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1263,7 +1266,7 @@
         <v>82</v>
       </c>
       <c r="B75" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1287,7 +1290,7 @@
         <v>85</v>
       </c>
       <c r="B78" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1295,6 +1298,14 @@
         <v>86</v>
       </c>
       <c r="B79" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>87</v>
+      </c>
+      <c r="B80" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="89">
   <si>
     <t>Tarea</t>
   </si>
@@ -283,6 +283,9 @@
   </si>
   <si>
     <t>pedidos internos de compras sacar grilla zebra</t>
+  </si>
+  <si>
+    <t>ver sumatoria reporte resumen saldo deudor</t>
   </si>
 </sst>
 </file>
@@ -644,10 +647,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1162,7 +1165,7 @@
         <v>69</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -1210,7 +1213,7 @@
         <v>75</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -1306,6 +1309,14 @@
         <v>87</v>
       </c>
       <c r="B80" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="89">
   <si>
     <t>Tarea</t>
   </si>
@@ -283,6 +283,9 @@
   </si>
   <si>
     <t>pedidos internos de compras sacar grilla zebra</t>
+  </si>
+  <si>
+    <t>pedidos a compras internos cargar cantidad con coma</t>
   </si>
 </sst>
 </file>
@@ -644,10 +647,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1306,6 +1309,14 @@
         <v>87</v>
       </c>
       <c r="B80" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$C$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$C$82</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="90">
   <si>
     <t>Tarea</t>
   </si>
@@ -286,6 +286,9 @@
   </si>
   <si>
     <t>ver sumatoria reporte resumen saldo deudor</t>
+  </si>
+  <si>
+    <t>cotizaciones corregir descuentos</t>
   </si>
 </sst>
 </file>
@@ -647,10 +650,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82"/>
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1160,7 +1163,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>69</v>
       </c>
@@ -1208,7 +1211,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>75</v>
       </c>
@@ -1264,7 +1267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>82</v>
       </c>
@@ -1288,7 +1291,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>85</v>
       </c>
@@ -1320,8 +1323,16 @@
         <v>4</v>
       </c>
     </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>89</v>
+      </c>
+      <c r="B82" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C74">
+  <autoFilter ref="A1:C82">
     <filterColumn colId="1">
       <filters>
         <filter val="en proceso"/>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -653,7 +653,7 @@
   <dimension ref="A1:C82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1288,7 +1288,7 @@
         <v>84</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -1304,7 +1304,7 @@
         <v>86</v>
       </c>
       <c r="B79" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1312,7 +1312,7 @@
         <v>87</v>
       </c>
       <c r="B80" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1320,7 +1320,7 @@
         <v>88</v>
       </c>
       <c r="B81" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1328,7 +1328,7 @@
         <v>89</v>
       </c>
       <c r="B82" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="91">
   <si>
     <t>Tarea</t>
   </si>
@@ -289,6 +289,9 @@
   </si>
   <si>
     <t>cotizaciones corregir descuentos</t>
+  </si>
+  <si>
+    <t>costos de articulos calcular aquellos q estan formulados</t>
   </si>
 </sst>
 </file>
@@ -650,10 +653,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1264,7 +1267,7 @@
         <v>81</v>
       </c>
       <c r="B74" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -1329,6 +1332,14 @@
       </c>
       <c r="B82" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>90</v>
+      </c>
+      <c r="B83" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
   <si>
     <t>Tarea</t>
   </si>
@@ -292,6 +292,9 @@
   </si>
   <si>
     <t>costos de articulos calcular aquellos q estan formulados</t>
+  </si>
+  <si>
+    <t>cliente. Sacar cuit repetidos y poner campo cuit como unico</t>
   </si>
 </sst>
 </file>
@@ -653,10 +656,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1339,6 +1342,14 @@
         <v>90</v>
       </c>
       <c r="B83" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>91</v>
+      </c>
+      <c r="B84" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="93">
   <si>
     <t>Tarea</t>
   </si>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t>cliente. Sacar cuit repetidos y poner campo cuit como unico</t>
+  </si>
+  <si>
+    <t>acomodar reporte de ordenes de compra saldos cuando se hacen varios ingresos de una misma OC</t>
   </si>
 </sst>
 </file>
@@ -656,15 +659,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C84"/>
+  <dimension ref="A1:C85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="71" customWidth="1"/>
+    <col min="1" max="1" width="95.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" customWidth="1"/>
     <col min="3" max="3" width="32.85546875" customWidth="1"/>
   </cols>
@@ -1350,6 +1353,14 @@
         <v>91</v>
       </c>
       <c r="B84" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>92</v>
+      </c>
+      <c r="B85" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="585" windowWidth="14805" windowHeight="7530"/>
+    <workbookView xWindow="240" yWindow="645" windowWidth="14805" windowHeight="7470"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -658,11 +658,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
+  <sheetPr filterMode="1">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:C85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1384,8 +1386,8 @@
       <formula>"terminado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="84" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$C$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$C$85</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -664,7 +664,7 @@
   <dimension ref="A1:C85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1158,12 +1158,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>67</v>
       </c>
       <c r="B60" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -1198,12 +1198,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>72</v>
       </c>
       <c r="B65" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -1270,7 +1270,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>81</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>84</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>86</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>87</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>88</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>89</v>
       </c>
@@ -1342,35 +1342,34 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>90</v>
       </c>
       <c r="B83" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>91</v>
       </c>
       <c r="B84" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>92</v>
       </c>
       <c r="B85" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C82">
+  <autoFilter ref="A1:C85">
     <filterColumn colId="1">
       <filters>
-        <filter val="en proceso"/>
         <filter val="no comenzado"/>
       </filters>
     </filterColumn>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="94">
   <si>
     <t>Tarea</t>
   </si>
@@ -298,6 +298,9 @@
   </si>
   <si>
     <t>acomodar reporte de ordenes de compra saldos cuando se hacen varios ingresos de una misma OC</t>
+  </si>
+  <si>
+    <t>agregar remito interno para descargar stock de piezas facturadas en negro</t>
   </si>
 </sst>
 </file>
@@ -661,10 +664,10 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1364,6 +1367,14 @@
       </c>
       <c r="B85" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>93</v>
+      </c>
+      <c r="B86" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="95">
   <si>
     <t>Tarea</t>
   </si>
@@ -301,6 +301,9 @@
   </si>
   <si>
     <t>agregar remito interno para descargar stock de piezas facturadas en negro</t>
+  </si>
+  <si>
+    <t>reporte retenciones entre fechas</t>
   </si>
 </sst>
 </file>
@@ -664,10 +667,10 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C86"/>
+  <dimension ref="A1:C87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1374,6 +1377,14 @@
         <v>93</v>
       </c>
       <c r="B86" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>94</v>
+      </c>
+      <c r="B87" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="96">
   <si>
     <t>Tarea</t>
   </si>
@@ -304,6 +304,9 @@
   </si>
   <si>
     <t>reporte retenciones entre fechas</t>
+  </si>
+  <si>
+    <t>reporte de art comprados sale mal ej oc 129 sintermet en prod</t>
   </si>
 </sst>
 </file>
@@ -667,10 +670,10 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C87"/>
+  <dimension ref="A1:C88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1385,6 +1388,14 @@
         <v>94</v>
       </c>
       <c r="B87" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>95</v>
+      </c>
+      <c r="B88" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="99">
   <si>
     <t>Tarea</t>
   </si>
@@ -307,6 +307,15 @@
   </si>
   <si>
     <t>reporte de art comprados sale mal ej oc 129 sintermet en prod</t>
+  </si>
+  <si>
+    <t>REPORTE LISTADO DE ORDENES DE PAGO</t>
+  </si>
+  <si>
+    <t>pedido de materiales, fix grilla,  a veces no inserta los articulos correctamente, gestionar store</t>
+  </si>
+  <si>
+    <t>form clientes ver bus de guardado, no se pintan los campos de gris</t>
   </si>
 </sst>
 </file>
@@ -670,10 +679,10 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C88"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1396,6 +1405,30 @@
         <v>95</v>
       </c>
       <c r="B88" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>96</v>
+      </c>
+      <c r="B89" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>97</v>
+      </c>
+      <c r="B90" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>98</v>
+      </c>
+      <c r="B91" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -682,7 +682,7 @@
   <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+      <selection activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1455,7 +1455,7 @@
   <pageSetup scale="84" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Hoja2!$A$1:$A$3</xm:f>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="645" windowWidth="14805" windowHeight="7470"/>
+    <workbookView xWindow="240" yWindow="705" windowWidth="14805" windowHeight="7410"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="102">
   <si>
     <t>Tarea</t>
   </si>
@@ -316,6 +316,15 @@
   </si>
   <si>
     <t>form clientes ver bus de guardado, no se pintan los campos de gris</t>
+  </si>
+  <si>
+    <t>fix reporte orden de compra calculo de total subtotal e ivas</t>
+  </si>
+  <si>
+    <t>EN REPORTE PEDIDOS AGREGAR COLUMNA DE OT PARA SABER LO QUE ESTA PROGRAMADO</t>
+  </si>
+  <si>
+    <t>EN FORMULARIO DE FACTURA PROVEEDOR NO APARECEN LAS OBSERVACIONES GUARDADAS</t>
   </si>
 </sst>
 </file>
@@ -679,10 +688,10 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1429,6 +1438,30 @@
         <v>98</v>
       </c>
       <c r="B91" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>99</v>
+      </c>
+      <c r="B92" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>100</v>
+      </c>
+      <c r="B93" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>101</v>
+      </c>
+      <c r="B94" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1455,7 +1488,7 @@
   <pageSetup scale="84" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Hoja2!$A$1:$A$3</xm:f>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="103">
   <si>
     <t>Tarea</t>
   </si>
@@ -325,6 +325,9 @@
   </si>
   <si>
     <t>EN FORMULARIO DE FACTURA PROVEEDOR NO APARECEN LAS OBSERVACIONES GUARDADAS</t>
+  </si>
+  <si>
+    <t>cotizacion agregar cliente sin dar de alta en tabla</t>
   </si>
 </sst>
 </file>
@@ -688,10 +691,10 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C94"/>
+  <dimension ref="A1:C95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1462,6 +1465,14 @@
         <v>101</v>
       </c>
       <c r="B94" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>102</v>
+      </c>
+      <c r="B95" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="105">
   <si>
     <t>Tarea</t>
   </si>
@@ -328,6 +328,12 @@
   </si>
   <si>
     <t>cotizacion agregar cliente sin dar de alta en tabla</t>
+  </si>
+  <si>
+    <t>sotck ingreso de art, en la lista de asociacion con OC en la columna oc N° sale el id del detalle debe salir el id de OC</t>
+  </si>
+  <si>
+    <t>REPORTE PEDIDO DE SUBONCJUNTOS QUE SE USAN NE VARIAS PIEZAS, EJ: SUBCONJUNTO 12180 QUE SE USA EN 6302, 8870, 5822 ETC. EN BASE A PEDIDOS DE CLIENTES DEL CONJUNTO COMPLETO DETERMINAR CUANTOS SUBCONJUNTOS SON NECESARIOS</t>
   </si>
 </sst>
 </file>
@@ -691,15 +697,15 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C95"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C96" sqref="C96"/>
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="95.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="104.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" customWidth="1"/>
     <col min="3" max="3" width="32.85546875" customWidth="1"/>
   </cols>
@@ -1473,6 +1479,22 @@
         <v>102</v>
       </c>
       <c r="B95" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>103</v>
+      </c>
+      <c r="B96" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>104</v>
+      </c>
+      <c r="B97" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="106">
   <si>
     <t>Tarea</t>
   </si>
@@ -334,6 +334,9 @@
   </si>
   <si>
     <t>REPORTE PEDIDO DE SUBONCJUNTOS QUE SE USAN NE VARIAS PIEZAS, EJ: SUBCONJUNTO 12180 QUE SE USA EN 6302, 8870, 5822 ETC. EN BASE A PEDIDOS DE CLIENTES DEL CONJUNTO COMPLETO DETERMINAR CUANTOS SUBCONJUNTOS SON NECESARIOS</t>
+  </si>
+  <si>
+    <t>agregar en formulario de facturas de proveedores campo para cargar percepciones de iibb en pcia de bs as</t>
   </si>
 </sst>
 </file>
@@ -697,10 +700,10 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1495,6 +1498,14 @@
         <v>104</v>
       </c>
       <c r="B97" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>105</v>
+      </c>
+      <c r="B98" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="108">
   <si>
     <t>Tarea</t>
   </si>
@@ -337,6 +337,12 @@
   </si>
   <si>
     <t>agregar en formulario de facturas de proveedores campo para cargar percepciones de iibb en pcia de bs as</t>
+  </si>
+  <si>
+    <t>facturacion, permitir modificar liquidacion de iibb manualmente</t>
+  </si>
+  <si>
+    <t>reporte para saber en que piezas es utilizado un componente</t>
   </si>
 </sst>
 </file>
@@ -700,10 +706,10 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C98"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1258,7 +1264,7 @@
         <v>74</v>
       </c>
       <c r="B67" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -1418,7 +1424,7 @@
         <v>94</v>
       </c>
       <c r="B87" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1426,7 +1432,7 @@
         <v>95</v>
       </c>
       <c r="B88" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1442,7 +1448,7 @@
         <v>97</v>
       </c>
       <c r="B90" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -1466,7 +1472,7 @@
         <v>100</v>
       </c>
       <c r="B93" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1506,6 +1512,22 @@
         <v>105</v>
       </c>
       <c r="B98" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>106</v>
+      </c>
+      <c r="B99" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>107</v>
+      </c>
+      <c r="B100" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="705" windowWidth="14805" windowHeight="7410"/>
+    <workbookView xWindow="240" yWindow="765" windowWidth="14805" windowHeight="7350"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$C$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$C$100</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="109">
   <si>
     <t>Tarea</t>
   </si>
@@ -343,6 +343,9 @@
   </si>
   <si>
     <t>reporte para saber en que piezas es utilizado un componente</t>
+  </si>
+  <si>
+    <t>clase para simplificar el servidor de reportes</t>
   </si>
 </sst>
 </file>
@@ -706,10 +709,10 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1259,7 +1262,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>74</v>
       </c>
@@ -1419,7 +1422,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>94</v>
       </c>
@@ -1427,7 +1430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>95</v>
       </c>
@@ -1443,7 +1446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>97</v>
       </c>
@@ -1467,7 +1470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>100</v>
       </c>
@@ -1531,8 +1534,16 @@
         <v>4</v>
       </c>
     </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>108</v>
+      </c>
+      <c r="B101" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C85">
+  <autoFilter ref="A1:C100">
     <filterColumn colId="1">
       <filters>
         <filter val="no comenzado"/>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="110">
   <si>
     <t>Tarea</t>
   </si>
@@ -346,6 +346,9 @@
   </si>
   <si>
     <t>clase para simplificar el servidor de reportes</t>
+  </si>
+  <si>
+    <t>ingreso de materiales grilla scrolleable, ver bug grilla para asociar OC</t>
   </si>
 </sst>
 </file>
@@ -709,10 +712,10 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1539,6 +1542,14 @@
         <v>108</v>
       </c>
       <c r="B101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>109</v>
+      </c>
+      <c r="B102" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="111">
   <si>
     <t>Tarea</t>
   </si>
@@ -349,6 +349,9 @@
   </si>
   <si>
     <t>ingreso de materiales grilla scrolleable, ver bug grilla para asociar OC</t>
+  </si>
+  <si>
+    <t>ver tema de seguridad y acceso para usuarios no logueados</t>
   </si>
 </sst>
 </file>
@@ -712,7 +715,7 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:C103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C99" sqref="C99"/>
@@ -1550,6 +1553,14 @@
         <v>109</v>
       </c>
       <c r="B102" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>110</v>
+      </c>
+      <c r="B103" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="112">
   <si>
     <t>Tarea</t>
   </si>
@@ -352,6 +352,9 @@
   </si>
   <si>
     <t>ver tema de seguridad y acceso para usuarios no logueados</t>
+  </si>
+  <si>
+    <t>implementar plantilla para excepciones no capturadas en el front con los reportes</t>
   </si>
 </sst>
 </file>
@@ -715,10 +718,10 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C103"/>
+  <dimension ref="A1:C104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1561,6 +1564,14 @@
         <v>110</v>
       </c>
       <c r="B103" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>111</v>
+      </c>
+      <c r="B104" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$C$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$C$104</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -720,8 +720,8 @@
   </sheetPr>
   <dimension ref="A1:C104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,7 +1060,7 @@
         <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -1503,12 +1503,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>103</v>
       </c>
       <c r="B96" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -1527,20 +1527,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>106</v>
       </c>
       <c r="B99" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>107</v>
       </c>
       <c r="B100" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -1551,20 +1551,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>109</v>
       </c>
       <c r="B102" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>110</v>
       </c>
       <c r="B103" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1576,9 +1576,10 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C100">
+  <autoFilter ref="A1:C104">
     <filterColumn colId="1">
       <filters>
+        <filter val="en proceso"/>
         <filter val="no comenzado"/>
       </filters>
     </filterColumn>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="114">
   <si>
     <t>Tarea</t>
   </si>
@@ -355,6 +355,12 @@
   </si>
   <si>
     <t>implementar plantilla para excepciones no capturadas en el front con los reportes</t>
+  </si>
+  <si>
+    <t>modificacion de oc</t>
+  </si>
+  <si>
+    <t>ot listado arreglar filtro por cliente</t>
   </si>
 </sst>
 </file>
@@ -718,10 +724,10 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:C106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1572,6 +1578,22 @@
         <v>111</v>
       </c>
       <c r="B104" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>112</v>
+      </c>
+      <c r="B105" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>113</v>
+      </c>
+      <c r="B106" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$C$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$C$106</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -727,7 +727,7 @@
   <dimension ref="A1:C106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,7 +1061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -1581,12 +1581,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>112</v>
       </c>
       <c r="B105" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -1598,7 +1598,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C104">
+  <autoFilter ref="A1:C106">
     <filterColumn colId="1">
       <filters>
         <filter val="en proceso"/>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="115">
   <si>
     <t>Tarea</t>
   </si>
@@ -361,6 +361,9 @@
   </si>
   <si>
     <t>ot listado arreglar filtro por cliente</t>
+  </si>
+  <si>
+    <t>lista de precios, ver como se manejaran los precios de facturacion a clientes que tienen descuentos</t>
   </si>
 </sst>
 </file>
@@ -724,10 +727,10 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C106"/>
+  <dimension ref="A1:C107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1594,6 +1597,14 @@
         <v>113</v>
       </c>
       <c r="B106" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>114</v>
+      </c>
+      <c r="B107" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -730,7 +730,7 @@
   <dimension ref="A1:C107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+      <selection activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="116">
   <si>
     <t>Tarea</t>
   </si>
@@ -364,6 +364,9 @@
   </si>
   <si>
     <t>lista de precios, ver como se manejaran los precios de facturacion a clientes que tienen descuentos</t>
+  </si>
+  <si>
+    <t>orden de compra, cuando inserto el mismo codigo 2 veces no lo reconoce como otra linea en la grilla x mismo id</t>
   </si>
 </sst>
 </file>
@@ -727,10 +730,10 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C107"/>
+  <dimension ref="A1:C108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A106" sqref="A106"/>
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1605,6 +1608,14 @@
         <v>114</v>
       </c>
       <c r="B107" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>115</v>
+      </c>
+      <c r="B108" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$C$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$C$108</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="117">
   <si>
     <t>Tarea</t>
   </si>
@@ -367,6 +367,9 @@
   </si>
   <si>
     <t>orden de compra, cuando inserto el mismo codigo 2 veces no lo reconoce como otra linea en la grilla x mismo id</t>
+  </si>
+  <si>
+    <t>orden de compra, hacer focus en la lupa luego de insertar articulo</t>
   </si>
 </sst>
 </file>
@@ -730,10 +733,10 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C108"/>
+  <dimension ref="A1:C109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+      <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1611,16 +1614,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>115</v>
       </c>
       <c r="B108" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>116</v>
+      </c>
+      <c r="B109" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C106">
+  <autoFilter ref="A1:C108">
     <filterColumn colId="1">
       <filters>
         <filter val="en proceso"/>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$C$108</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$C$109</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -736,7 +736,7 @@
   <dimension ref="A1:C109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C107" sqref="C107"/>
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1486,12 +1486,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>99</v>
       </c>
       <c r="B92" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -1534,12 +1534,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>105</v>
       </c>
       <c r="B98" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -1622,16 +1622,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>116</v>
       </c>
       <c r="B109" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C108">
+  <autoFilter ref="A1:C109">
     <filterColumn colId="1">
       <filters>
         <filter val="en proceso"/>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="118">
   <si>
     <t>Tarea</t>
   </si>
@@ -370,6 +370,9 @@
   </si>
   <si>
     <t>orden de compra, hacer focus en la lupa luego de insertar articulo</t>
+  </si>
+  <si>
+    <t>reporte de mov bancarios, cuando filtro por cheques depositados tiene que traer el nombre del cliente</t>
   </si>
 </sst>
 </file>
@@ -733,10 +736,10 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C109"/>
+  <dimension ref="A1:C110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+      <selection activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1628,6 +1631,14 @@
       </c>
       <c r="B109" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>117</v>
+      </c>
+      <c r="B110" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -738,8 +738,8 @@
   </sheetPr>
   <dimension ref="A1:C110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A113" sqref="A113"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1638,7 +1638,7 @@
         <v>117</v>
       </c>
       <c r="B110" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="765" windowWidth="14805" windowHeight="7350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11670" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="121">
   <si>
     <t>Tarea</t>
   </si>
@@ -373,6 +373,15 @@
   </si>
   <si>
     <t>reporte de mov bancarios, cuando filtro por cheques depositados tiene que traer el nombre del cliente</t>
+  </si>
+  <si>
+    <t>fc 5247 defa, habilitar para facturar cantidades especificas de cada remito</t>
+  </si>
+  <si>
+    <t>citi ventas, desarrollar funcionalidad según sistema NMA</t>
+  </si>
+  <si>
+    <t>implementar funcionalidad de hoja de ruta</t>
   </si>
 </sst>
 </file>
@@ -442,6 +451,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -489,7 +501,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -524,7 +536,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -736,10 +748,10 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C110"/>
+  <dimension ref="A1:C113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A111" sqref="A111"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1566,7 +1578,7 @@
         <v>108</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -1639,6 +1651,30 @@
       </c>
       <c r="B110" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>118</v>
+      </c>
+      <c r="B111" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>119</v>
+      </c>
+      <c r="B112" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>120</v>
+      </c>
+      <c r="B113" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11670" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$C$109</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="123">
   <si>
     <t>Tarea</t>
   </si>
@@ -382,6 +382,12 @@
   </si>
   <si>
     <t>implementar funcionalidad de hoja de ruta</t>
+  </si>
+  <si>
+    <t>ingreso de mat. Compras pendientes con el mismo id problema para seleccionar</t>
+  </si>
+  <si>
+    <t>ordenar viajes de hoja de ruta por pendientes y terminados</t>
   </si>
 </sst>
 </file>
@@ -748,10 +754,10 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C113"/>
+  <dimension ref="A1:C115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A106" sqref="A106"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1675,6 +1681,22 @@
       </c>
       <c r="B113" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>121</v>
+      </c>
+      <c r="B114" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>122</v>
+      </c>
+      <c r="B115" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="124">
   <si>
     <t>Tarea</t>
   </si>
@@ -388,6 +388,9 @@
   </si>
   <si>
     <t>ordenar viajes de hoja de ruta por pendientes y terminados</t>
+  </si>
+  <si>
+    <t>agregar reporte de cotizaion a tabla de articulos</t>
   </si>
 </sst>
 </file>
@@ -754,10 +757,10 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C115"/>
+  <dimension ref="A1:C116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1680,7 +1683,7 @@
         <v>120</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -1688,7 +1691,7 @@
         <v>121</v>
       </c>
       <c r="B114" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -1696,6 +1699,14 @@
         <v>122</v>
       </c>
       <c r="B115" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>123</v>
+      </c>
+      <c r="B116" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$C$109</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$C$116</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -759,8 +759,8 @@
   </sheetPr>
   <dimension ref="A1:C116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1654,7 +1654,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>117</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>120</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>121</v>
       </c>
@@ -1702,19 +1702,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>123</v>
       </c>
       <c r="B116" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C109">
+  <autoFilter ref="A1:C116">
     <filterColumn colId="1">
       <filters>
-        <filter val="en proceso"/>
         <filter val="no comenzado"/>
       </filters>
     </filterColumn>
@@ -1731,7 +1730,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="84" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="79" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="126">
   <si>
     <t>Tarea</t>
   </si>
@@ -391,6 +391,12 @@
   </si>
   <si>
     <t>agregar reporte de cotizaion a tabla de articulos</t>
+  </si>
+  <si>
+    <t>reporte de cc clientes acomodar filtro de fecha</t>
+  </si>
+  <si>
+    <t>CREAR RESUMEN DE CC DE PROVEEDORES</t>
   </si>
 </sst>
 </file>
@@ -757,10 +763,10 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C116"/>
+  <dimension ref="A1:C118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B116" sqref="B116"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1675,7 +1681,7 @@
         <v>119</v>
       </c>
       <c r="B112" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -1708,6 +1714,22 @@
       </c>
       <c r="B116" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>124</v>
+      </c>
+      <c r="B117" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>125</v>
+      </c>
+      <c r="B118" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="127">
   <si>
     <t>Tarea</t>
   </si>
@@ -397,6 +397,9 @@
   </si>
   <si>
     <t>CREAR RESUMEN DE CC DE PROVEEDORES</t>
+  </si>
+  <si>
+    <t>cuando llamo a un cliente no trae la posicion de iva el form d cliente</t>
   </si>
 </sst>
 </file>
@@ -763,10 +766,10 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C118"/>
+  <dimension ref="A1:C119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1729,6 +1732,14 @@
         <v>125</v>
       </c>
       <c r="B118" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>126</v>
+      </c>
+      <c r="B119" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="128">
   <si>
     <t>Tarea</t>
   </si>
@@ -400,6 +400,9 @@
   </si>
   <si>
     <t>cuando llamo a un cliente no trae la posicion de iva el form d cliente</t>
+  </si>
+  <si>
+    <t>cobranzas de clientes, en la grilla de pendientes no mostrar los cbtes que se aplicaron al 100%</t>
   </si>
 </sst>
 </file>
@@ -766,10 +769,10 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C119"/>
+  <dimension ref="A1:C120"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A48" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A120" sqref="A120"/>
+      <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1740,6 +1743,14 @@
         <v>126</v>
       </c>
       <c r="B119" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>127</v>
+      </c>
+      <c r="B120" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$C$116</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$C$120</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="129">
   <si>
     <t>Tarea</t>
   </si>
@@ -403,6 +403,9 @@
   </si>
   <si>
     <t>cobranzas de clientes, en la grilla de pendientes no mostrar los cbtes que se aplicaron al 100%</t>
+  </si>
+  <si>
+    <t>tabla de articulos, agregar boton para ver ots pendientes</t>
   </si>
 </sst>
 </file>
@@ -769,10 +772,10 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C120"/>
+  <dimension ref="A1:C121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1503,7 +1506,7 @@
         <v>96</v>
       </c>
       <c r="B89" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -1682,12 +1685,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>119</v>
       </c>
       <c r="B112" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -1730,32 +1733,40 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>125</v>
       </c>
       <c r="B118" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>126</v>
       </c>
       <c r="B119" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>127</v>
       </c>
       <c r="B120" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>128</v>
+      </c>
+      <c r="B121" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C116">
+  <autoFilter ref="A1:C120">
     <filterColumn colId="1">
       <filters>
         <filter val="no comenzado"/>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5955"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="130">
   <si>
     <t>Tarea</t>
   </si>
@@ -406,6 +406,9 @@
   </si>
   <si>
     <t>tabla de articulos, agregar boton para ver ots pendientes</t>
+  </si>
+  <si>
+    <t>frontend grilla de modificar pedidos, cuando abro la ventana hay que borrar filtro del store</t>
   </si>
 </sst>
 </file>
@@ -772,10 +775,10 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C121"/>
+  <dimension ref="A1:C122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C111" sqref="C111"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1762,7 +1765,15 @@
         <v>128</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>129</v>
+      </c>
+      <c r="B122" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5955"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="131">
   <si>
     <t>Tarea</t>
   </si>
@@ -409,6 +409,9 @@
   </si>
   <si>
     <t>frontend grilla de modificar pedidos, cuando abro la ventana hay que borrar filtro del store</t>
+  </si>
+  <si>
+    <t>frontend cobranzas de clientes, cuando edito un item de la grilla borra todos los demas</t>
   </si>
 </sst>
 </file>
@@ -775,10 +778,10 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C122"/>
+  <dimension ref="A1:C123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B124" sqref="B124"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1773,7 +1776,15 @@
         <v>129</v>
       </c>
       <c r="B122" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>130</v>
+      </c>
+      <c r="B123" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -781,7 +781,7 @@
   <dimension ref="A1:C123"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A89" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B127" sqref="B127"/>
+      <selection activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1784,7 +1784,7 @@
         <v>130</v>
       </c>
       <c r="B123" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$C$120</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$C$123</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="133">
   <si>
     <t>Tarea</t>
   </si>
@@ -412,6 +412,12 @@
   </si>
   <si>
     <t>frontend cobranzas de clientes, cuando edito un item de la grilla borra todos los demas</t>
+  </si>
+  <si>
+    <t>reporte libro IVA ventas, poner todas las columnas en negativo cuando son NC</t>
+  </si>
+  <si>
+    <t>ETIQUETA DE INGRESO DE MATERIALES NO ESTA SALIENDO EL NUMERO DE LOTE</t>
   </si>
 </sst>
 </file>
@@ -778,10 +784,10 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C123"/>
+  <dimension ref="A1:C125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B125" sqref="B125"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1507,7 +1513,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>96</v>
       </c>
@@ -1555,12 +1561,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>102</v>
       </c>
       <c r="B95" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -1763,7 +1769,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>128</v>
       </c>
@@ -1771,7 +1777,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>129</v>
       </c>
@@ -1779,7 +1785,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>130</v>
       </c>
@@ -1787,8 +1793,24 @@
         <v>6</v>
       </c>
     </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>131</v>
+      </c>
+      <c r="B124" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>132</v>
+      </c>
+      <c r="B125" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C120">
+  <autoFilter ref="A1:C123">
     <filterColumn colId="1">
       <filters>
         <filter val="no comenzado"/>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -787,7 +787,7 @@
   <dimension ref="A1:C125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
+      <selection activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1806,7 +1806,7 @@
         <v>132</v>
       </c>
       <c r="B125" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="134">
   <si>
     <t>Tarea</t>
   </si>
@@ -418,6 +418,9 @@
   </si>
   <si>
     <t>ETIQUETA DE INGRESO DE MATERIALES NO ESTA SALIENDO EL NUMERO DE LOTE</t>
+  </si>
+  <si>
+    <t>entrada y salida de articulos, oc pendientes, listar solo las ordenes activas, se estan mostrando las eliminadas</t>
   </si>
 </sst>
 </file>
@@ -784,10 +787,10 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C125"/>
+  <dimension ref="A1:C126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B125" sqref="B125"/>
+      <selection activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1807,6 +1810,14 @@
       </c>
       <c r="B125" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>133</v>
+      </c>
+      <c r="B126" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="136">
   <si>
     <t>Tarea</t>
   </si>
@@ -421,6 +421,12 @@
   </si>
   <si>
     <t>entrada y salida de articulos, oc pendientes, listar solo las ordenes activas, se estan mostrando las eliminadas</t>
+  </si>
+  <si>
+    <t>grilla de remitos pendientes de facturacion, agregar columna con numero de remito</t>
+  </si>
+  <si>
+    <t>fc de proveedores, restriccion para evitar carga duplicada</t>
   </si>
 </sst>
 </file>
@@ -787,10 +793,10 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C126"/>
+  <dimension ref="A1:C128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C124" sqref="C124"/>
+      <selection activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1818,6 +1824,22 @@
       </c>
       <c r="B126" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>134</v>
+      </c>
+      <c r="B127" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>135</v>
+      </c>
+      <c r="B128" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -796,7 +796,7 @@
   <dimension ref="A1:C128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C115" sqref="C115"/>
+      <selection activeCell="C126" sqref="C126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1839,7 +1839,7 @@
         <v>135</v>
       </c>
       <c r="B128" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$C$123</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$C$128</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="137">
   <si>
     <t>Tarea</t>
   </si>
@@ -427,6 +427,9 @@
   </si>
   <si>
     <t>fc de proveedores, restriccion para evitar carga duplicada</t>
+  </si>
+  <si>
+    <t>rr liquidacion de sueldos, cuando guardo una liquidacion posicionarse en la lupa de buscar empleado</t>
   </si>
 </sst>
 </file>
@@ -793,10 +796,10 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C128"/>
+  <dimension ref="A1:C129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C126" sqref="C126"/>
+      <selection activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1807,10 +1810,10 @@
         <v>131</v>
       </c>
       <c r="B124" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>132</v>
       </c>
@@ -1818,23 +1821,23 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>133</v>
       </c>
       <c r="B126" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>134</v>
       </c>
       <c r="B127" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>135</v>
       </c>
@@ -1842,8 +1845,16 @@
         <v>6</v>
       </c>
     </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>136</v>
+      </c>
+      <c r="B129" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C123">
+  <autoFilter ref="A1:C128">
     <filterColumn colId="1">
       <filters>
         <filter val="no comenzado"/>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -799,7 +799,7 @@
   <dimension ref="A1:C129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B131" sqref="B131"/>
+      <selection activeCell="A132" sqref="A132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$C$128</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$C$130</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="138">
   <si>
     <t>Tarea</t>
   </si>
@@ -430,6 +430,9 @@
   </si>
   <si>
     <t>rr liquidacion de sueldos, cuando guardo una liquidacion posicionarse en la lupa de buscar empleado</t>
+  </si>
+  <si>
+    <t>pedido de clientes, agregar funcionalidad de autorizacion de pedidos para remitar con cantidad autorizada</t>
   </si>
 </sst>
 </file>
@@ -796,10 +799,10 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C129"/>
+  <dimension ref="A1:C130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A132" sqref="A132"/>
+      <selection activeCell="B132" sqref="B132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1805,7 +1808,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>131</v>
       </c>
@@ -1845,7 +1848,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>136</v>
       </c>
@@ -1853,8 +1856,16 @@
         <v>6</v>
       </c>
     </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>137</v>
+      </c>
+      <c r="B130" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C128">
+  <autoFilter ref="A1:C130">
     <filterColumn colId="1">
       <filters>
         <filter val="no comenzado"/>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="139">
   <si>
     <t>Tarea</t>
   </si>
@@ -433,6 +433,9 @@
   </si>
   <si>
     <t>pedido de clientes, agregar funcionalidad de autorizacion de pedidos para remitar con cantidad autorizada</t>
+  </si>
+  <si>
+    <t>cuando se realiza una cobranza y se imputa una factura que tiene asociada una NC, la NC debe restar a la FC</t>
   </si>
 </sst>
 </file>
@@ -799,7 +802,7 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C130"/>
+  <dimension ref="A1:C131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B132" sqref="B132"/>
@@ -1861,6 +1864,14 @@
         <v>137</v>
       </c>
       <c r="B130" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>138</v>
+      </c>
+      <c r="B131" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="140">
   <si>
     <t>Tarea</t>
   </si>
@@ -436,6 +436,9 @@
   </si>
   <si>
     <t>cuando se realiza una cobranza y se imputa una factura que tiene asociada una NC, la NC debe restar a la FC</t>
+  </si>
+  <si>
+    <t>funcionalidad para asociar ot a pedido luego de que la OT fue generada</t>
   </si>
 </sst>
 </file>
@@ -802,10 +805,10 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C131"/>
+  <dimension ref="A1:C132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B132" sqref="B132"/>
+      <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1872,6 +1875,14 @@
         <v>138</v>
       </c>
       <c r="B131" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>139</v>
+      </c>
+      <c r="B132" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="142">
   <si>
     <t>Tarea</t>
   </si>
@@ -439,6 +439,12 @@
   </si>
   <si>
     <t>funcionalidad para asociar ot a pedido luego de que la OT fue generada</t>
+  </si>
+  <si>
+    <t>33892 LA ESTRUCTURA DE PRODUCTO ARROJA ERROR</t>
+  </si>
+  <si>
+    <t>ORDEN DE COMPRA, HISTORICO DE COMPRA TRAER ORDENES INACTIVAS</t>
   </si>
 </sst>
 </file>
@@ -805,10 +811,10 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C132"/>
+  <dimension ref="A1:C134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
+      <selection activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1883,6 +1889,22 @@
         <v>139</v>
       </c>
       <c r="B132" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>140</v>
+      </c>
+      <c r="B133" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>141</v>
+      </c>
+      <c r="B134" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="143">
   <si>
     <t>Tarea</t>
   </si>
@@ -445,6 +445,9 @@
   </si>
   <si>
     <t>ORDEN DE COMPRA, HISTORICO DE COMPRA TRAER ORDENES INACTIVAS</t>
+  </si>
+  <si>
+    <t>separar notificacion del entorno de produccion y desarrollo</t>
   </si>
 </sst>
 </file>
@@ -811,10 +814,10 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C134"/>
+  <dimension ref="A1:C135"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C117" sqref="C117"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B138" sqref="B138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1897,7 +1900,7 @@
         <v>140</v>
       </c>
       <c r="B133" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -1905,6 +1908,14 @@
         <v>141</v>
       </c>
       <c r="B134" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>142</v>
+      </c>
+      <c r="B135" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -1916,7 +1916,7 @@
         <v>142</v>
       </c>
       <c r="B135" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$C$130</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$C$135</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -816,8 +816,8 @@
   </sheetPr>
   <dimension ref="A1:C135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B138" sqref="B138"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1871,12 +1871,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>137</v>
       </c>
       <c r="B130" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -1884,18 +1884,18 @@
         <v>138</v>
       </c>
       <c r="B131" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>139</v>
       </c>
       <c r="B132" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>140</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>141</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>142</v>
       </c>
@@ -1920,7 +1920,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C130">
+  <autoFilter ref="A1:C135">
     <filterColumn colId="1">
       <filters>
         <filter val="no comenzado"/>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="147">
   <si>
     <t>Tarea</t>
   </si>
@@ -448,14 +448,34 @@
   </si>
   <si>
     <t>separar notificacion del entorno de produccion y desarrollo</t>
+  </si>
+  <si>
+    <t>cotizador a moneda historica</t>
+  </si>
+  <si>
+    <t>PROVEEDORES CUANDO SE ABRE EL DETALLE DESDE LA CC NO SE CARGAN PROV. PARTIDO Y LOCALIDAD</t>
+  </si>
+  <si>
+    <t>AGREGAR STOCK EN REPORTE DE PEDIDOS</t>
+  </si>
+  <si>
+    <t>orden de pago, fecha de emision…se debe poder ingresar manualmente y debe ser la misma q la cc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -483,8 +503,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -814,10 +835,10 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C135"/>
+  <dimension ref="A1:C139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E131" sqref="E131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1917,6 +1938,38 @@
       </c>
       <c r="B135" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>143</v>
+      </c>
+      <c r="B136" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>144</v>
+      </c>
+      <c r="B137" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>145</v>
+      </c>
+      <c r="B138" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>146</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="143">
   <si>
     <t>Tarea</t>
   </si>
@@ -448,34 +448,14 @@
   </si>
   <si>
     <t>separar notificacion del entorno de produccion y desarrollo</t>
-  </si>
-  <si>
-    <t>cotizador a moneda historica</t>
-  </si>
-  <si>
-    <t>PROVEEDORES CUANDO SE ABRE EL DETALLE DESDE LA CC NO SE CARGAN PROV. PARTIDO Y LOCALIDAD</t>
-  </si>
-  <si>
-    <t>AGREGAR STOCK EN REPORTE DE PEDIDOS</t>
-  </si>
-  <si>
-    <t>orden de pago, fecha de emision…se debe poder ingresar manualmente y debe ser la misma q la cc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -503,9 +483,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -835,10 +814,10 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C139"/>
+  <dimension ref="A1:C135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E131" sqref="E131"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1938,38 +1917,6 @@
       </c>
       <c r="B135" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>143</v>
-      </c>
-      <c r="B136" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>144</v>
-      </c>
-      <c r="B137" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>145</v>
-      </c>
-      <c r="B138" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>146</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="144">
   <si>
     <t>Tarea</t>
   </si>
@@ -448,6 +448,9 @@
   </si>
   <si>
     <t>separar notificacion del entorno de produccion y desarrollo</t>
+  </si>
+  <si>
+    <t>agrandar campo de observaciones en autorizacion de facturas pendientes</t>
   </si>
 </sst>
 </file>
@@ -814,10 +817,10 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C135"/>
+  <dimension ref="A1:C136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+      <selection activeCell="B138" sqref="B138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1917,6 +1920,14 @@
       </c>
       <c r="B135" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>143</v>
+      </c>
+      <c r="B136" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$C$135</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$C$136</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -820,7 +820,7 @@
   <dimension ref="A1:C136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B138" sqref="B138"/>
+      <selection activeCell="B139" sqref="B139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1647,7 +1647,7 @@
         <v>108</v>
       </c>
       <c r="B101" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -1754,12 +1754,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>122</v>
       </c>
       <c r="B115" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -1770,12 +1770,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>124</v>
       </c>
       <c r="B117" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -1882,12 +1882,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>138</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="132" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -1922,16 +1922,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>143</v>
       </c>
       <c r="B136" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C135">
+  <autoFilter ref="A1:C136">
     <filterColumn colId="1">
       <filters>
         <filter val="no comenzado"/>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -820,7 +820,7 @@
   <dimension ref="A1:C136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B139" sqref="B139"/>
+      <selection activeCell="A142" sqref="A142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1447,7 +1447,7 @@
         <v>83</v>
       </c>
       <c r="B76" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.25">

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="145">
   <si>
     <t>Tarea</t>
   </si>
@@ -451,6 +451,9 @@
   </si>
   <si>
     <t>agrandar campo de observaciones en autorizacion de facturas pendientes</t>
+  </si>
+  <si>
+    <t>AL BORRAR UNA OP SE DEBE BORRAR LA IMPUTACION ASOCIADA CON LA FACTURA</t>
   </si>
 </sst>
 </file>
@@ -817,10 +820,10 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C136"/>
+  <dimension ref="A1:C137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A142" sqref="A142"/>
+      <selection activeCell="B138" sqref="B138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1928,6 +1931,14 @@
       </c>
       <c r="B136" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>144</v>
+      </c>
+      <c r="B137" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -823,7 +823,7 @@
   <dimension ref="A1:C137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B138" sqref="B138"/>
+      <selection activeCell="B137" sqref="B137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1938,7 +1938,7 @@
         <v>144</v>
       </c>
       <c r="B137" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
